--- a/tweet_proofs/Random_Proofs_2025.xlsx
+++ b/tweet_proofs/Random_Proofs_2025.xlsx
@@ -5892,6 +5892,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6238,7 +6239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A275" sqref="A275"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6247,7 +6250,7 @@
     <col min="3" max="3" width="26.9375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.41015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.9375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="170.1171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="150.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">

--- a/tweet_proofs/Random_Proofs_2025.xlsx
+++ b/tweet_proofs/Random_Proofs_2025.xlsx
@@ -6239,8 +6239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/tweet_proofs/Random_Proofs_2025.xlsx
+++ b/tweet_proofs/Random_Proofs_2025.xlsx
@@ -6239,8 +6239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/tweet_proofs/Random_Proofs_2025.xlsx
+++ b/tweet_proofs/Random_Proofs_2025.xlsx
@@ -6239,9 +6239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A336" sqref="A336"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
